--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-vocabulary-property.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-vocabulary-property.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vkovtun/Work/Projects/openBIS/sissource/openbis/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BA37BF-45F1-724B-949C-9A38CC0263B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0454654D-5DDE-B347-B4A8-F8E8AFC3CF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{75C30B8F-E590-0942-81AA-3FAD886CC976}"/>
+    <workbookView xWindow="1460" yWindow="500" windowWidth="27340" windowHeight="16940" xr2:uid="{75C30B8F-E590-0942-81AA-3FAD886CC976}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Validation script</t>
   </si>
   <si>
-    <t>Generated Code Prefix</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Data type</t>
   </si>
   <si>
-    <t>Vocabulary Code</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -153,6 +147,12 @@
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>Vocabulary code</t>
+  </si>
+  <si>
+    <t>Generated code prefix</t>
   </si>
 </sst>
 </file>
@@ -547,14 +547,14 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -565,18 +565,18 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -587,43 +587,43 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -645,21 +645,21 @@
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -670,39 +670,39 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7" t="b">
         <v>0</v>
@@ -711,24 +711,24 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7" t="b">
         <v>0</v>
@@ -737,24 +737,24 @@
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7" t="b">
         <v>0</v>
@@ -763,19 +763,19 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
         <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -802,22 +802,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -828,39 +828,39 @@
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="b">
         <v>0</v>
@@ -869,24 +869,24 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="3" t="b">
         <v>0</v>
@@ -895,24 +895,24 @@
         <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
         <v>17</v>
       </c>
-      <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3" t="b">
         <v>0</v>
@@ -921,19 +921,19 @@
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
         <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
